--- a/llmcompanion/groundtruth.xlsx
+++ b/llmcompanion/groundtruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onurd\Desktop\CMPE491\llmcompanion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32082E-9953-4103-AA20-B12E819AE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1331923-13F8-4510-813D-22384520E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -633,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +923,7 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
@@ -2406,22 +2405,22 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="D89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/llmcompanion/groundtruth.xlsx
+++ b/llmcompanion/groundtruth.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onurd\Desktop\CMPE491\llmcompanion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFB4A5-C344-4291-92DD-ECC0E15B27BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,21 +278,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
@@ -280,7 +303,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,7 +313,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
@@ -304,93 +333,80 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD6EE"/>
-          <bgColor rgb="FFBDD6EE"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F331" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F331">
   <tableColumns count="6">
-    <tableColumn name="Model" id="1"/>
-    <tableColumn name="Case" id="2"/>
-    <tableColumn name="File" id="3"/>
-    <tableColumn name="Detection Result" id="4"/>
-    <tableColumn name="Expected Result" id="5"/>
-    <tableColumn name="Occurrences" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Case"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="File"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Detection Result"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected Result"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Occurrences"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -580,29 +596,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F331" sqref="E2:F331"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.14"/>
-    <col customWidth="1" min="2" max="2" width="21.57"/>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
-    <col customWidth="1" min="4" max="4" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="16.71"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -719,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,7 +958,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1137,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1157,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1177,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1197,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1217,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1237,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1257,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1277,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1297,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1317,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1337,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1357,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1377,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1397,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1417,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1437,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1457,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1477,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1497,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1517,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1537,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1557,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1577,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1617,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -1637,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1657,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -1677,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -1697,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -1717,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -1737,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1757,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1777,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -1797,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -1817,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -1837,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -1857,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -1877,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1897,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1917,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -1957,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -1977,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1997,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -2017,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -2037,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -2057,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2077,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2097,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2117,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2137,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2157,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2197,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2217,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2237,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2257,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2277,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2297,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2317,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2337,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2357,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2397,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -2417,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2437,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -2457,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -2477,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -2497,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -2517,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -2537,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2557,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -2577,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2597,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2617,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
@@ -2637,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -2657,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -2677,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2697,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -2717,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -2737,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -2757,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -2777,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2797,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2817,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2837,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="F112" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -2857,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -2877,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2897,10 +2915,10 @@
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -2917,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -2937,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -2957,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -2978,7 +2996,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3034,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -3033,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="F122" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3053,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="F123" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -3073,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="F124" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -3094,7 +3112,7 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -3112,7 +3130,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3148,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -3147,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="F128" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3186,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -3185,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="F130" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -3206,7 +3224,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -3223,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="F132" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3243,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="F133" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3263,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="F134" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3283,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="F135" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -3303,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="F136" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -3323,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="F137" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -3343,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="F138" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3382,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -3381,10 +3399,10 @@
         <v>1</v>
       </c>
       <c r="F140" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3420,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3419,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -3439,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="F143" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -3459,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="F144" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
@@ -3479,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="F145" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -3499,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="F146" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -3519,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="F147" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -3539,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="F148" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3559,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -3579,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -3599,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="F151" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -3619,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
@@ -3639,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="F153" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -3659,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="F154" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
@@ -3679,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -3699,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3738,7 @@
       </c>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3737,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="F158" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3776,7 @@
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3794,7 @@
       </c>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
@@ -3794,7 +3812,7 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -3812,7 +3830,7 @@
       </c>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -3829,10 +3847,10 @@
         <v>1</v>
       </c>
       <c r="F163" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -3850,7 +3868,7 @@
       </c>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -3867,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="F165" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3906,7 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -3923,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="F168" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>6</v>
       </c>
@@ -3944,7 +3962,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -3961,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="F170" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -3981,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="F171" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
@@ -3997,14 +4015,14 @@
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E172" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
+      <c r="E172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4017,12 +4035,12 @@
       <c r="D173" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E173" s="3" t="b">
+      <c r="E173" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -4035,12 +4053,12 @@
       <c r="D174" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E174" s="3" t="b">
+      <c r="E174" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
@@ -4053,14 +4071,14 @@
       <c r="D175" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E175" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
+      <c r="E175" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>6</v>
       </c>
@@ -4073,12 +4091,12 @@
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E176" s="3" t="b">
+      <c r="E176" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
@@ -4091,14 +4109,14 @@
       <c r="D177" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E177" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
+      <c r="E177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -4111,12 +4129,12 @@
       <c r="D178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E178" s="3" t="b">
+      <c r="E178" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -4132,11 +4150,11 @@
       <c r="E179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F179" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
+      <c r="F179" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>6</v>
       </c>
@@ -4149,14 +4167,14 @@
       <c r="D180" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E180" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F180" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
+      <c r="E180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -4169,14 +4187,14 @@
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E181" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F181" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
+      <c r="E181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -4189,14 +4207,14 @@
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E182" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F182" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
+      <c r="E182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -4209,12 +4227,12 @@
       <c r="D183" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E183" s="3" t="b">
+      <c r="E183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -4227,14 +4245,14 @@
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E184" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F184" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
+      <c r="E184" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -4247,14 +4265,14 @@
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E185" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F185" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
+      <c r="E185" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -4265,14 +4283,14 @@
         <v>50</v>
       </c>
       <c r="D186" s="1"/>
-      <c r="E186" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F186" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
+      <c r="E186" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -4285,14 +4303,14 @@
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E187" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F187" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
+      <c r="E187" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -4305,14 +4323,14 @@
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E188" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F188" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
+      <c r="E188" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -4325,14 +4343,14 @@
       <c r="D189" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E189" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F189" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
+      <c r="E189" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -4345,14 +4363,14 @@
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E190" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F190" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
+      <c r="E190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -4365,14 +4383,14 @@
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E191" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F191" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
+      <c r="E191" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
@@ -4385,14 +4403,14 @@
       <c r="D192" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E192" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F192" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
+      <c r="E192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
@@ -4405,12 +4423,12 @@
       <c r="D193" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E193" s="3" t="b">
+      <c r="E193" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -4426,11 +4444,11 @@
       <c r="E194" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F194" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
+      <c r="F194" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
@@ -4443,14 +4461,14 @@
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E195" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F195" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
+      <c r="E195" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -4463,14 +4481,14 @@
       <c r="D196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E196" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F196" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
+      <c r="E196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -4483,14 +4501,14 @@
       <c r="D197" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E197" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F197" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
+      <c r="E197" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -4503,12 +4521,12 @@
       <c r="D198" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E198" s="3" t="b">
+      <c r="E198" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
@@ -4524,11 +4542,11 @@
       <c r="E199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F199" s="3">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
+      <c r="F199" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
@@ -4544,11 +4562,11 @@
       <c r="E200" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F200" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
+      <c r="F200" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>6</v>
       </c>
@@ -4564,11 +4582,11 @@
       <c r="E201" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F201" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
+      <c r="F201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>6</v>
       </c>
@@ -4581,14 +4599,14 @@
       <c r="D202" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E202" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F202" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
+      <c r="E202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -4601,12 +4619,12 @@
       <c r="D203" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E203" s="3" t="b">
+      <c r="E203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
@@ -4622,11 +4640,11 @@
       <c r="E204" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F204" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="205" ht="14.25" customHeight="1">
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>6</v>
       </c>
@@ -4642,11 +4660,11 @@
       <c r="E205" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F205" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -4659,14 +4677,14 @@
       <c r="D206" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E206" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F206" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
+      <c r="E206" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>6</v>
       </c>
@@ -4679,14 +4697,14 @@
       <c r="D207" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E207" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F207" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
+      <c r="E207" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4722,7 @@
       </c>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>6</v>
       </c>
@@ -4720,11 +4738,11 @@
       <c r="E209" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F209" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="210" ht="14.25" customHeight="1">
+      <c r="F209" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -4740,11 +4758,11 @@
       <c r="E210" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F210" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="211" ht="14.25" customHeight="1">
+      <c r="F210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -4757,14 +4775,14 @@
       <c r="D211" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E211" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F211" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
+      <c r="E211" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -4777,14 +4795,14 @@
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E212" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F212" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="213" ht="14.25" customHeight="1">
+      <c r="E212" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +4820,7 @@
       </c>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>6</v>
       </c>
@@ -4818,11 +4836,11 @@
       <c r="E214" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F214" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="215" ht="14.25" customHeight="1">
+      <c r="F214" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>6</v>
       </c>
@@ -4838,11 +4856,11 @@
       <c r="E215" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F215" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="216" ht="14.25" customHeight="1">
+      <c r="F215" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>6</v>
       </c>
@@ -4858,11 +4876,11 @@
       <c r="E216" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F216" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="217" ht="14.25" customHeight="1">
+      <c r="F216" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -4878,11 +4896,11 @@
       <c r="E217" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F217" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25" customHeight="1">
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>6</v>
       </c>
@@ -4900,7 +4918,7 @@
       </c>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>6</v>
       </c>
@@ -4916,11 +4934,11 @@
       <c r="E219" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F219" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="220" ht="14.25" customHeight="1">
+      <c r="F219" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>6</v>
       </c>
@@ -4936,11 +4954,11 @@
       <c r="E220" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F220" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
@@ -4953,12 +4971,12 @@
       <c r="D221" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E221" s="3" t="b">
+      <c r="E221" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -4974,11 +4992,11 @@
       <c r="E222" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F222" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
+      <c r="F222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>6</v>
       </c>
@@ -4994,11 +5012,11 @@
       <c r="E223" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F223" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25" customHeight="1">
+      <c r="F223" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -5011,12 +5029,12 @@
       <c r="D224" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E224" s="3" t="b">
+      <c r="E224" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>6</v>
       </c>
@@ -5029,12 +5047,12 @@
       <c r="D225" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E225" s="3" t="b">
+      <c r="E225" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
@@ -5047,12 +5065,12 @@
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E226" s="3" t="b">
+      <c r="E226" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
@@ -5068,11 +5086,11 @@
       <c r="E227" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F227" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
+      <c r="F227" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>6</v>
       </c>
@@ -5088,11 +5106,11 @@
       <c r="E228" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F228" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="229" ht="14.25" customHeight="1">
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -5108,11 +5126,11 @@
       <c r="E229" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F229" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25" customHeight="1">
+      <c r="F229" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>6</v>
       </c>
@@ -5128,11 +5146,11 @@
       <c r="E230" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F230" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25" customHeight="1">
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>6</v>
       </c>
@@ -5148,11 +5166,11 @@
       <c r="E231" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F231" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25" customHeight="1">
+      <c r="F231" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>6</v>
       </c>
@@ -5170,7 +5188,7 @@
       </c>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -5188,7 +5206,7 @@
       </c>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -5206,7 +5224,7 @@
       </c>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -5222,11 +5240,11 @@
       <c r="E235" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F235" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25" customHeight="1">
+      <c r="F235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -5239,12 +5257,12 @@
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E236" s="3" t="b">
+      <c r="E236" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -5262,7 +5280,7 @@
       </c>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +5298,7 @@
       </c>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -5298,7 +5316,7 @@
       </c>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>6</v>
       </c>
@@ -5314,11 +5332,11 @@
       <c r="E240" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F240" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="241" ht="14.25" customHeight="1">
+      <c r="F240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>6</v>
       </c>
@@ -5336,7 +5354,7 @@
       </c>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -5352,11 +5370,11 @@
       <c r="E242" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F242" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="243" ht="14.25" customHeight="1">
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -5374,7 +5392,7 @@
       </c>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -5392,7 +5410,7 @@
       </c>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>6</v>
       </c>
@@ -5408,11 +5426,11 @@
       <c r="E245" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F245" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="246" ht="14.25" customHeight="1">
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -5425,12 +5443,12 @@
       <c r="D246" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E246" s="3" t="b">
+      <c r="E246" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>6</v>
       </c>
@@ -5443,12 +5461,12 @@
       <c r="D247" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E247" s="3" t="b">
+      <c r="E247" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -5461,12 +5479,12 @@
       <c r="D248" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E248" s="3" t="b">
+      <c r="E248" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -5479,12 +5497,12 @@
       <c r="D249" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E249" s="3" t="b">
+      <c r="E249" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>6</v>
       </c>
@@ -5500,11 +5518,11 @@
       <c r="E250" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F250" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="251" ht="14.25" customHeight="1">
+      <c r="F250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>6</v>
       </c>
@@ -5522,7 +5540,7 @@
       </c>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -5540,7 +5558,7 @@
       </c>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>6</v>
       </c>
@@ -5558,7 +5576,7 @@
       </c>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>6</v>
       </c>
@@ -5576,7 +5594,7 @@
       </c>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>6</v>
       </c>
@@ -5592,11 +5610,11 @@
       <c r="E255" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F255" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="256" ht="14.25" customHeight="1">
+      <c r="F255" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>6</v>
       </c>
@@ -5612,11 +5630,11 @@
       <c r="E256" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F256" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="257" ht="14.25" customHeight="1">
+      <c r="F256" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>6</v>
       </c>
@@ -5632,11 +5650,11 @@
       <c r="E257" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F257" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="258" ht="14.25" customHeight="1">
+      <c r="F257" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>6</v>
       </c>
@@ -5654,7 +5672,7 @@
       </c>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -5670,11 +5688,11 @@
       <c r="E259" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F259" s="3">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="260" ht="14.25" customHeight="1">
+      <c r="F259" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -5690,11 +5708,11 @@
       <c r="E260" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F260" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="261" ht="14.25" customHeight="1">
+      <c r="F260" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>6</v>
       </c>
@@ -5707,12 +5725,12 @@
       <c r="D261" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E261" s="3" t="b">
+      <c r="E261" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>6</v>
       </c>
@@ -5730,7 +5748,7 @@
       </c>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>6</v>
       </c>
@@ -5748,7 +5766,7 @@
       </c>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>6</v>
       </c>
@@ -5766,7 +5784,7 @@
       </c>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -5782,11 +5800,11 @@
       <c r="E265" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F265" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="266" ht="14.25" customHeight="1">
+      <c r="F265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -5804,7 +5822,7 @@
       </c>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5840,7 @@
       </c>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>6</v>
       </c>
@@ -5840,7 +5858,7 @@
       </c>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>6</v>
       </c>
@@ -5858,7 +5876,7 @@
       </c>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>6</v>
       </c>
@@ -5874,11 +5892,11 @@
       <c r="E270" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F270" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="271" ht="14.25" customHeight="1">
+      <c r="F270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>6</v>
       </c>
@@ -5896,7 +5914,7 @@
       </c>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>6</v>
       </c>
@@ -5912,11 +5930,11 @@
       <c r="E272" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F272" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="273" ht="14.25" customHeight="1">
+      <c r="F272" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>6</v>
       </c>
@@ -5934,7 +5952,7 @@
       </c>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>6</v>
       </c>
@@ -5950,11 +5968,11 @@
       <c r="E274" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F274" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="275" ht="14.25" customHeight="1">
+      <c r="F274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>6</v>
       </c>
@@ -5970,11 +5988,11 @@
       <c r="E275" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F275" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="276" ht="14.25" customHeight="1">
+      <c r="F275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>6</v>
       </c>
@@ -5992,7 +6010,7 @@
       </c>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>6</v>
       </c>
@@ -6010,7 +6028,7 @@
       </c>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6046,7 @@
       </c>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>6</v>
       </c>
@@ -6044,11 +6062,11 @@
       <c r="E279" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F279" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="280" ht="14.25" customHeight="1">
+      <c r="F279" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>6</v>
       </c>
@@ -6064,11 +6082,11 @@
       <c r="E280" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F280" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="281" ht="14.25" customHeight="1">
+      <c r="F280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>6</v>
       </c>
@@ -6086,7 +6104,7 @@
       </c>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>6</v>
       </c>
@@ -6104,7 +6122,7 @@
       </c>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -6122,7 +6140,7 @@
       </c>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -6140,7 +6158,7 @@
       </c>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -6158,7 +6176,7 @@
       </c>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -6174,11 +6192,11 @@
       <c r="E286" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F286" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="287" ht="14.25" customHeight="1">
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -6196,7 +6214,7 @@
       </c>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6214,7 +6232,7 @@
       </c>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -6232,7 +6250,7 @@
       </c>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -6250,7 +6268,7 @@
       </c>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -6266,11 +6284,11 @@
       <c r="E291" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F291" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="292" ht="14.25" customHeight="1">
+      <c r="F291" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -6288,7 +6306,7 @@
       </c>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6324,7 @@
       </c>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -6324,7 +6342,7 @@
       </c>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -6342,7 +6360,7 @@
       </c>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -6358,11 +6376,11 @@
       <c r="E296" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F296" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="297" ht="14.25" customHeight="1">
+      <c r="F296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>6</v>
       </c>
@@ -6380,7 +6398,7 @@
       </c>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>6</v>
       </c>
@@ -6398,7 +6416,7 @@
       </c>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -6416,7 +6434,7 @@
       </c>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
@@ -6434,7 +6452,7 @@
       </c>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>6</v>
       </c>
@@ -6450,11 +6468,11 @@
       <c r="E301" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F301" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="302" ht="14.25" customHeight="1">
+      <c r="F301" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>6</v>
       </c>
@@ -6472,7 +6490,7 @@
       </c>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>6</v>
       </c>
@@ -6490,7 +6508,7 @@
       </c>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>6</v>
       </c>
@@ -6508,7 +6526,7 @@
       </c>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +6544,7 @@
       </c>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>6</v>
       </c>
@@ -6542,11 +6560,11 @@
       <c r="E306" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F306" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="307" ht="14.25" customHeight="1">
+      <c r="F306" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>6</v>
       </c>
@@ -6562,11 +6580,11 @@
       <c r="E307" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F307" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="308" ht="14.25" customHeight="1">
+      <c r="F307" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>6</v>
       </c>
@@ -6584,7 +6602,7 @@
       </c>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>6</v>
       </c>
@@ -6602,7 +6620,7 @@
       </c>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>6</v>
       </c>
@@ -6620,7 +6638,7 @@
       </c>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>6</v>
       </c>
@@ -6636,11 +6654,11 @@
       <c r="E311" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F311" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="312" ht="14.25" customHeight="1">
+      <c r="F311" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>6</v>
       </c>
@@ -6658,7 +6676,7 @@
       </c>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>6</v>
       </c>
@@ -6676,7 +6694,7 @@
       </c>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>6</v>
       </c>
@@ -6694,7 +6712,7 @@
       </c>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>6</v>
       </c>
@@ -6712,7 +6730,7 @@
       </c>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>6</v>
       </c>
@@ -6728,11 +6746,11 @@
       <c r="E316" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F316" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="317" ht="14.25" customHeight="1">
+      <c r="F316" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>6</v>
       </c>
@@ -6750,7 +6768,7 @@
       </c>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -6766,11 +6784,11 @@
       <c r="E318" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F318" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="319" ht="14.25" customHeight="1">
+      <c r="F318" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>6</v>
       </c>
@@ -6783,12 +6801,12 @@
       <c r="D319" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E319" s="3" t="b">
+      <c r="E319" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>6</v>
       </c>
@@ -6801,12 +6819,12 @@
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E320" s="3" t="b">
+      <c r="E320" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>6</v>
       </c>
@@ -6822,11 +6840,11 @@
       <c r="E321" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F321" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="322" ht="14.25" customHeight="1">
+      <c r="F321" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>6</v>
       </c>
@@ -6844,7 +6862,7 @@
       </c>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>6</v>
       </c>
@@ -6862,7 +6880,7 @@
       </c>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>6</v>
       </c>
@@ -6880,7 +6898,7 @@
       </c>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>6</v>
       </c>
@@ -6898,7 +6916,7 @@
       </c>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>6</v>
       </c>
@@ -6914,11 +6932,11 @@
       <c r="E326" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F326" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="327" ht="14.25" customHeight="1">
+      <c r="F326" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>6</v>
       </c>
@@ -6936,7 +6954,7 @@
       </c>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>6</v>
       </c>
@@ -6954,7 +6972,7 @@
       </c>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +6990,7 @@
       </c>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>6</v>
       </c>
@@ -6990,7 +7008,7 @@
       </c>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>6</v>
       </c>
@@ -7006,680 +7024,680 @@
       <c r="E331" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F331" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
+      <c r="F331" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="E2:E53">
     <cfRule type="colorScale" priority="1">
@@ -7693,12 +7711,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>